--- a/doc/Suivi de mes tâches1 hangman.xlsx
+++ b/doc/Suivi de mes tâches1 hangman.xlsx
@@ -6,6 +6,28 @@
     <sheet name="TÂCHES" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,12 +426,15 @@
         <v>% ACHÈVEMENT Le jour même</v>
       </c>
       <c r="E2" t="str">
-        <v xml:space="preserve">% ACHÈVEMENT trois jour aprés </v>
+        <v xml:space="preserve">19 Octobre </v>
       </c>
       <c r="F2" t="str">
-        <v xml:space="preserve">% ACHÈVEMENT six jour aprés </v>
+        <v xml:space="preserve">20Octobre </v>
       </c>
       <c r="G2" t="str">
+        <v xml:space="preserve">21 Octobre </v>
+      </c>
+      <c r="H2" t="str">
         <v xml:space="preserve">23 Octobre </v>
       </c>
     </row>
@@ -427,9 +452,6 @@
         <v>100%</v>
       </c>
       <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
         <v>terminer</v>
       </c>
     </row>
@@ -447,7 +469,16 @@
         <v>10%</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>35%</v>
+      </c>
+      <c r="F4" t="str">
+        <v>60%</v>
+      </c>
+      <c r="G4" t="str">
+        <v>75%</v>
+      </c>
+      <c r="H4" t="str">
+        <v>terminer</v>
       </c>
     </row>
     <row r="5">
@@ -464,12 +495,55 @@
         <v>15%</v>
       </c>
       <c r="E5" t="str">
-        <v>25%</v>
+        <v>terminer</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve">nombre tour </v>
+      </c>
+      <c r="B6" t="str">
+        <v>jeudi 13 oct</v>
+      </c>
+      <c r="C6" t="str">
+        <v>23 Octobre  23h59</v>
+      </c>
+      <c r="D6" t="str">
+        <v>10%</v>
+      </c>
+      <c r="E6" t="str">
+        <v>10%</v>
+      </c>
+      <c r="F6" t="str">
+        <v>terminer</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>play du jeu</v>
+      </c>
+      <c r="B7" t="str">
+        <v>jeudi 13 oct</v>
+      </c>
+      <c r="C7" t="str">
+        <v>23 Octobre  23h59</v>
+      </c>
+      <c r="D7" t="str">
+        <v>10%</v>
+      </c>
+      <c r="E7" t="str">
+        <v>30%</v>
+      </c>
+      <c r="F7" t="str">
+        <v>50%</v>
+      </c>
+      <c r="G7" t="str">
+        <v>terminer</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/doc/Suivi de mes tâches1 hangman.xlsx
+++ b/doc/Suivi de mes tâches1 hangman.xlsx
@@ -1,46 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomgarat/Documents/Ynov/Hangman/Garabedian-Plumecocq-Hangman-/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E448B8C0-5602-5D40-8E90-A2505ED647CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="TÂCHES" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+  <si>
+    <t>LISTE DES TÂCHES</t>
+  </si>
+  <si>
+    <t>MES TÂCHES</t>
+  </si>
+  <si>
+    <t>DATE DE DÉBUT</t>
+  </si>
+  <si>
+    <t>DATE D’ÉCHÉANCE</t>
+  </si>
+  <si>
+    <t>% ACHÈVEMENT Le jour même</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Octobre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20Octobre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Octobre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Octobre </t>
+  </si>
+  <si>
+    <t>Création bibliothèqe de mots</t>
+  </si>
+  <si>
+    <t>23 Octobre  23h59</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Ascii Art</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>int le mot</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre tour </t>
+  </si>
+  <si>
+    <t>play du jeu</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>suivie des tâches + Readme</t>
+  </si>
+  <si>
+    <t>Jeudi 13 Octobre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercredi 12 Octobre </t>
+  </si>
+  <si>
+    <t>Mercredi 12 Octobre</t>
+  </si>
+  <si>
+    <t>terminé</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="6">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;Terminé&quot;;&quot;&quot;;&quot;&quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,14 +139,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -401,149 +497,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="9" width="10" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>LISTE DES TÂCHES</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>MES TÂCHES</v>
-      </c>
-      <c r="B2" t="str">
-        <v>DATE DE DÉBUT</v>
-      </c>
-      <c r="C2" t="str">
-        <v>DATE D’ÉCHÉANCE</v>
-      </c>
-      <c r="D2" t="str">
-        <v>% ACHÈVEMENT Le jour même</v>
-      </c>
-      <c r="E2" t="str">
-        <v xml:space="preserve">19 Octobre </v>
-      </c>
-      <c r="F2" t="str">
-        <v xml:space="preserve">20Octobre </v>
-      </c>
-      <c r="G2" t="str">
-        <v xml:space="preserve">21 Octobre </v>
-      </c>
-      <c r="H2" t="str">
-        <v xml:space="preserve">23 Octobre </v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Création bibliothèqe de mots</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Mercredi 12 Octobre 14h00</v>
-      </c>
-      <c r="C3" t="str">
-        <v>23 Octobre  23h59</v>
-      </c>
-      <c r="D3" t="str">
-        <v>100%</v>
-      </c>
-      <c r="E3" t="str">
-        <v>terminer</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Ascii Art</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Mercredi 12 Octobre 14h00</v>
-      </c>
-      <c r="C4" t="str">
-        <v>23 Octobre  23h59</v>
-      </c>
-      <c r="D4" t="str">
-        <v>10%</v>
-      </c>
-      <c r="E4" t="str">
-        <v>35%</v>
-      </c>
-      <c r="F4" t="str">
-        <v>60%</v>
-      </c>
-      <c r="G4" t="str">
-        <v>75%</v>
-      </c>
-      <c r="H4" t="str">
-        <v>terminer</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>int le mot</v>
-      </c>
-      <c r="B5" t="str">
-        <v>jeudi 13 oct</v>
-      </c>
-      <c r="C5" t="str">
-        <v>23 Octobre  23h59</v>
-      </c>
-      <c r="D5" t="str">
-        <v>15%</v>
-      </c>
-      <c r="E5" t="str">
-        <v>terminer</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve">nombre tour </v>
-      </c>
-      <c r="B6" t="str">
-        <v>jeudi 13 oct</v>
-      </c>
-      <c r="C6" t="str">
-        <v>23 Octobre  23h59</v>
-      </c>
-      <c r="D6" t="str">
-        <v>10%</v>
-      </c>
-      <c r="E6" t="str">
-        <v>10%</v>
-      </c>
-      <c r="F6" t="str">
-        <v>terminer</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>play du jeu</v>
-      </c>
-      <c r="B7" t="str">
-        <v>jeudi 13 oct</v>
-      </c>
-      <c r="C7" t="str">
-        <v>23 Octobre  23h59</v>
-      </c>
-      <c r="D7" t="str">
-        <v>10%</v>
-      </c>
-      <c r="E7" t="str">
-        <v>30%</v>
-      </c>
-      <c r="F7" t="str">
-        <v>50%</v>
-      </c>
-      <c r="G7" t="str">
-        <v>terminer</v>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+    <ignoredError sqref="A1:H2 A7 A5 C5:D5 A6 C6:E6 C7:F7 A4 C4:G4 A3 C3:D3 H7 G6:H6 F5:H5 F3:H3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>